--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1416DA-5F66-084C-B9C4-08E591FAAB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B338E53-DE82-D147-8806-305B3488B1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
@@ -1518,7 +1518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1580,6 +1580,21 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1664,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1695,6 +1710,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2028,8 +2045,8 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5611,21 +5628,21 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="27" customWidth="1"/>
     <col min="11" max="11" width="34.5" customWidth="1"/>
     <col min="12" max="12" width="56.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5634,20 +5651,20 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -5658,7 +5675,7 @@
       <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="26" t="s">
         <v>451</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -5672,22 +5689,22 @@
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="C2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="27" t="str">
+        <f t="shared" ref="E2:E13" si="0">A2</f>
+        <v>LifeCycle</v>
+      </c>
+      <c r="F2" t="s">
         <v>421</v>
-      </c>
-      <c r="D2" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="E2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -5698,7 +5715,7 @@
       <c r="I2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
@@ -5710,22 +5727,22 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B13" si="0">A3</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="B3" s="27" t="str">
         <f>A3</f>
         <v>LifeCycle</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
         <v>417</v>
       </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>LifeCycle</v>
+      </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>421</v>
       </c>
       <c r="G3" t="s">
         <v>71</v>
@@ -5736,7 +5753,7 @@
       <c r="I3" t="s">
         <v>188</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="27" t="str">
         <f t="shared" ref="J3:J13" si="1">A3</f>
         <v>LifeCycle</v>
       </c>
@@ -5748,22 +5765,22 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="27" t="str">
+        <f t="shared" ref="B4:B10" si="2">A4</f>
+        <v>LifeCycle</v>
+      </c>
+      <c r="C4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>421</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D3:D13" si="2">A4</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="E4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -5774,7 +5791,7 @@
       <c r="I4" t="s">
         <v>187</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LifeCycle</v>
       </c>
@@ -5786,22 +5803,22 @@
       <c r="A5" t="s">
         <v>347</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>CHOP</v>
+      </c>
+      <c r="C5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CHOP</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>421</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="2"/>
-        <v>CHOP</v>
-      </c>
-      <c r="E5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" t="s">
-        <v>377</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -5812,7 +5829,7 @@
       <c r="I5" t="s">
         <v>188</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CHOP</v>
       </c>
@@ -5821,22 +5838,22 @@
       <c r="A6" t="s">
         <v>347</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>CHOP</v>
+      </c>
+      <c r="C6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CHOP</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>421</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="2"/>
-        <v>CHOP</v>
-      </c>
-      <c r="E6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" t="s">
-        <v>378</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -5847,7 +5864,7 @@
       <c r="I6" t="s">
         <v>187</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CHOP</v>
       </c>
@@ -5856,22 +5873,22 @@
       <c r="A7" t="s">
         <v>356</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>ELFE</v>
+      </c>
+      <c r="C7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ELFE</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>421</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="2"/>
-        <v>ELFE</v>
-      </c>
-      <c r="E7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F7" t="s">
-        <v>379</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -5882,7 +5899,7 @@
       <c r="I7" t="s">
         <v>187</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ELFE</v>
       </c>
@@ -5891,22 +5908,22 @@
       <c r="A8" t="s">
         <v>356</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>ELFE</v>
+      </c>
+      <c r="C8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ELFE</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>421</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>ELFE</v>
-      </c>
-      <c r="E8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F8" t="s">
-        <v>380</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -5917,7 +5934,7 @@
       <c r="I8" t="s">
         <v>187</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ELFE</v>
       </c>
@@ -5926,22 +5943,22 @@
       <c r="A9" t="s">
         <v>363</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>GenR</v>
+      </c>
+      <c r="C9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GenR</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>421</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="2"/>
-        <v>GenR</v>
-      </c>
-      <c r="E9" t="s">
-        <v>417</v>
-      </c>
-      <c r="F9" t="s">
-        <v>381</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -5952,7 +5969,7 @@
       <c r="I9" t="s">
         <v>188</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GenR</v>
       </c>
@@ -5961,22 +5978,22 @@
       <c r="A10" t="s">
         <v>363</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>GenR</v>
+      </c>
+      <c r="C10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GenR</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>421</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="2"/>
-        <v>GenR</v>
-      </c>
-      <c r="E10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F10" t="s">
-        <v>382</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -5987,7 +6004,7 @@
       <c r="I10" t="s">
         <v>187</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GenR</v>
       </c>
@@ -5996,15 +6013,15 @@
       <c r="A11" t="s">
         <v>370</v>
       </c>
-      <c r="B11" t="str">
+      <c r="D11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NINFEA</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>421</v>
-      </c>
-      <c r="F11" t="s">
-        <v>383</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -6015,7 +6032,7 @@
       <c r="I11" t="s">
         <v>188</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
@@ -6024,15 +6041,15 @@
       <c r="A12" t="s">
         <v>370</v>
       </c>
-      <c r="B12" t="str">
+      <c r="D12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NINFEA</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>421</v>
-      </c>
-      <c r="F12" t="s">
-        <v>384</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -6043,7 +6060,7 @@
       <c r="I12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
@@ -6052,15 +6069,15 @@
       <c r="A13" t="s">
         <v>370</v>
       </c>
-      <c r="B13" t="str">
+      <c r="D13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NINFEA</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>421</v>
-      </c>
-      <c r="F13" t="s">
-        <v>385</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -6071,7 +6088,7 @@
       <c r="I13" t="s">
         <v>187</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
@@ -6087,15 +6104,17 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="9" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="8" width="23.83203125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6103,7 +6122,7 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="26" t="s">
         <v>449</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -6112,16 +6131,16 @@
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="26" t="s">
         <v>447</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="26" t="s">
         <v>454</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -6135,7 +6154,7 @@
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
@@ -6145,18 +6164,18 @@
       <c r="D2" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="6" t="str">
+      <c r="E2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="G2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
@@ -6171,7 +6190,7 @@
       <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="27" t="str">
         <f t="shared" ref="B3:B4" si="0">A3</f>
         <v>LifeCycle</v>
       </c>
@@ -6181,18 +6200,18 @@
       <c r="D3" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="27" t="str">
         <f t="shared" ref="E3:E5" si="1">A3</f>
         <v>LifeCycle</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="27" t="str">
         <f t="shared" ref="G3:G4" si="2">A3</f>
         <v>LifeCycle</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="27" t="str">
         <f t="shared" ref="H3:H4" si="3">A3</f>
         <v>LifeCycle</v>
       </c>
@@ -6207,7 +6226,7 @@
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6217,18 +6236,18 @@
       <c r="D4" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LifeCycle</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="6" t="str">
+      <c r="G4" s="27" t="str">
         <f t="shared" si="2"/>
         <v>LifeCycle</v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="H4" s="27" t="str">
         <f t="shared" si="3"/>
         <v>LifeCycle</v>
       </c>
@@ -6243,7 +6262,7 @@
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="27" t="str">
         <f t="shared" ref="B5" si="4">A5</f>
         <v>LifeCycle</v>
       </c>
@@ -6253,18 +6272,18 @@
       <c r="D5" t="s">
         <v>419</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LifeCycle</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="27" t="str">
         <f t="shared" ref="G5" si="5">A5</f>
         <v>LifeCycle</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="27" t="str">
         <f t="shared" ref="H5" si="6">A5</f>
         <v>LifeCycle</v>
       </c>
@@ -6344,17 +6363,18 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="27" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="27" customWidth="1"/>
     <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="11" max="11" width="80.33203125" bestFit="1" customWidth="1"/>
@@ -6365,7 +6385,7 @@
       <c r="A1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>458</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6377,10 +6397,10 @@
       <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="26" t="s">
         <v>461</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -6403,7 +6423,7 @@
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
@@ -6433,7 +6453,7 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="27" t="str">
         <f t="shared" ref="B3:B15" si="0">A3</f>
         <v>LifeCycle</v>
       </c>
@@ -6446,11 +6466,11 @@
       <c r="E3" t="s">
         <v>347</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F15" si="1">E3</f>
+      <c r="F3" s="27" t="str">
+        <f t="shared" ref="F3:F13" si="1">E3</f>
         <v>CHOP</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="27" t="str">
         <f>E3</f>
         <v>CHOP</v>
       </c>
@@ -6474,7 +6494,7 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6487,11 +6507,11 @@
       <c r="E4" t="s">
         <v>347</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CHOP</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="27" t="str">
         <f>E4</f>
         <v>CHOP</v>
       </c>
@@ -6515,7 +6535,7 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6542,7 +6562,7 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6555,11 +6575,11 @@
       <c r="E6" t="s">
         <v>356</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ELFE</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="27" t="str">
         <f>E6</f>
         <v>ELFE</v>
       </c>
@@ -6583,7 +6603,7 @@
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6596,11 +6616,11 @@
       <c r="E7" t="s">
         <v>356</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ELFE</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="27" t="str">
         <f>E7</f>
         <v>ELFE</v>
       </c>
@@ -6624,7 +6644,7 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6637,11 +6657,11 @@
       <c r="E8" t="s">
         <v>363</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GenR</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="27" t="str">
         <f>E8</f>
         <v>GenR</v>
       </c>
@@ -6665,7 +6685,7 @@
       <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6678,11 +6698,11 @@
       <c r="E9" t="s">
         <v>363</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GenR</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="27" t="str">
         <f>E9</f>
         <v>GenR</v>
       </c>
@@ -6706,7 +6726,7 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6736,7 +6756,7 @@
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6749,7 +6769,7 @@
       <c r="E11" t="s">
         <v>370</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
@@ -6770,7 +6790,7 @@
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6783,7 +6803,7 @@
       <c r="E12" t="s">
         <v>370</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
@@ -6804,7 +6824,7 @@
       <c r="A13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6817,7 +6837,7 @@
       <c r="E13" t="s">
         <v>370</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
@@ -6838,7 +6858,7 @@
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6859,7 +6879,7 @@
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
@@ -6872,8 +6892,8 @@
       <c r="E15" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15"/>
       <c r="J15" s="4" t="s">
         <v>395</v>

--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B338E53-DE82-D147-8806-305B3488B1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15A798-357B-5740-B429-7D909D7E6373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="HarmonizationStatus" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$J$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$J$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="468">
   <si>
     <t>name</t>
   </si>
@@ -1512,6 +1512,12 @@
   </si>
   <si>
     <t>ontologyTerm</t>
+  </si>
+  <si>
+    <t>CollectionDocuments</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -2042,11 +2048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E080B8D-E59C-EC4A-8043-87277F816BB8}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2228,234 +2234,222 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E14" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E15" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I19" s="17" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>24</v>
+        <v>414</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>443</v>
       </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
       <c r="F21" s="11" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="H21" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>5</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>24</v>
+        <v>414</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="11" t="b">
+      <c r="E22" s="11">
         <v>1</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>24</v>
+        <v>414</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>443</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>409</v>
+        <v>22</v>
       </c>
       <c r="H23" s="11" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="H24" s="11" t="b">
-        <v>1</v>
+      <c r="B24" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2463,19 +2457,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>443</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="11" t="b">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>435</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2483,7 +2474,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -2497,16 +2488,19 @@
         <v>24</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>443</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="H27" s="11" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2514,19 +2508,16 @@
         <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>443</v>
+        <v>43</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="H28" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2534,280 +2525,283 @@
         <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>443</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="H29" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>429</v>
+      <c r="I29" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="B34" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+    <row r="36" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E36" s="23">
         <v>1</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F36" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+    <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D37" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E37" s="23">
         <v>1</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F38" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="H34" s="10" t="b">
+      <c r="H38" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="39" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+    <row r="40" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="10" t="b">
+      <c r="H40" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+    <row r="41" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="10" t="b">
+      <c r="H41" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I41" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+    <row r="42" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E42" s="18">
         <v>1</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F42" s="18" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E41" s="18">
-        <v>1</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="9" t="b">
+      <c r="E43" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+    </row>
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="9" t="b">
+      <c r="C45" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45" s="18">
         <v>1</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2815,13 +2809,16 @@
         <v>22</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="9" t="b">
+        <v>7</v>
+      </c>
+      <c r="E46" s="9">
         <v>1</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2829,10 +2826,10 @@
         <v>22</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H47" s="9" t="b">
         <v>1</v>
@@ -2840,97 +2837,97 @@
     </row>
     <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="E48" s="9">
+        <v>442</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I48" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9">
+        <v>62</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="E50" s="9">
+        <v>38</v>
+      </c>
+      <c r="H50" s="9" t="b">
         <v>1</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="9">
+        <v>38</v>
+      </c>
+      <c r="H51" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>7</v>
+        <v>443</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="H53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2939,283 +2936,348 @@
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="9" t="b">
+        <v>443</v>
+      </c>
+      <c r="E54" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="I55" s="18" t="s">
-        <v>427</v>
+      <c r="F54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H56" s="9" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="H57" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E58" s="18">
+    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1</v>
+    </row>
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="I59" s="18" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="H60" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D62" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E62" s="18">
         <v>1</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F62" s="18" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="9">
-        <v>1</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>63</v>
+        <v>432</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="9" t="b">
+      <c r="E63" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E65" s="18">
+        <v>1</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H64" s="9" t="b">
+      <c r="H68" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H65" s="9" t="b">
+      <c r="H69" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+    <row r="70" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="70" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>409</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>66</v>
+      <c r="A71" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D71" s="20"/>
-    </row>
-    <row r="72" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="I71" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="I72" s="19" t="s">
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="I76" s="19" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
+    <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D77" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E77" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
+    <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D78" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E78" s="14">
         <v>2</v>
       </c>
-      <c r="H74" s="14" t="b">
+      <c r="H78" s="14" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J71" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
+  <autoFilter ref="A1:J75" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15A798-357B-5740-B429-7D909D7E6373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B13F7C-5556-5A4F-96CF-1AEAAC0AB908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="HarmonizationStatus" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$J$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$J$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="471">
   <si>
     <t>name</t>
   </si>
@@ -1518,6 +1518,15 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>harmonisations</t>
+  </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>variables</t>
   </si>
 </sst>
 </file>
@@ -2048,11 +2057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E080B8D-E59C-EC4A-8043-87277F816BB8}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2441,32 +2450,33 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I25" s="17" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2474,13 +2484,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="11" t="b">
-        <v>1</v>
+        <v>443</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2488,19 +2501,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="H27" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2508,16 +2515,19 @@
         <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>442</v>
+        <v>3</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H28" s="11" t="b">
         <v>1</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2525,19 +2535,16 @@
         <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>443</v>
+        <v>43</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>8</v>
+        <v>410</v>
       </c>
       <c r="H29" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2545,13 +2552,19 @@
         <v>24</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>443</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="H30" s="11" t="b">
         <v>1</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2559,16 +2572,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2576,19 +2586,16 @@
         <v>24</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>444</v>
+        <v>16</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="H32" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>431</v>
+      <c r="I32" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2596,7 +2603,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>443</v>
@@ -2608,52 +2615,52 @@
         <v>1</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+    <row r="35" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B35" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I35" s="17" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E36" s="23">
-        <v>1</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2661,7 +2668,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>443</v>
@@ -2670,45 +2677,51 @@
         <v>1</v>
       </c>
       <c r="F37" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H37" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="23">
+        <v>1</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="H38" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>441</v>
-      </c>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>31</v>
+        <v>439</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>35</v>
+        <v>442</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H39" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>33</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2716,13 +2729,16 @@
         <v>30</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="10" t="b">
-        <v>1</v>
+        <v>443</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2730,7 +2746,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>20</v>
@@ -2738,39 +2754,39 @@
       <c r="H41" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I41" s="10" t="s">
+    </row>
+    <row r="42" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+    <row r="43" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E43" s="18">
         <v>1</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F43" s="18" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2778,47 +2794,44 @@
         <v>25</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="9" t="b">
+      <c r="H45" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E46" s="18">
         <v>1</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F46" s="18" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2826,13 +2839,16 @@
         <v>22</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="9" t="b">
+      <c r="E47" s="9">
         <v>1</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2840,19 +2856,13 @@
         <v>22</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H48" s="9" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2860,16 +2870,19 @@
         <v>22</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>442</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H49" s="9" t="b">
         <v>1</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2877,10 +2890,13 @@
         <v>22</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>38</v>
+        <v>442</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H50" s="9" t="b">
         <v>1</v>
@@ -2891,7 +2907,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>38</v>
@@ -2902,22 +2918,16 @@
     </row>
     <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="E52" s="9">
+        <v>38</v>
+      </c>
+      <c r="H52" s="9" t="b">
         <v>1</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2925,44 +2935,47 @@
         <v>8</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>443</v>
       </c>
       <c r="E53" s="9">
         <v>1</v>
       </c>
+      <c r="F53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="9">
-        <v>1</v>
+      <c r="G55" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2970,13 +2983,22 @@
         <v>10</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>7</v>
+        <v>443</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2984,15 +3006,12 @@
         <v>10</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>465</v>
+        <v>13</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="H57" s="9" t="b">
+        <v>7</v>
+      </c>
+      <c r="E57" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3001,109 +3020,118 @@
         <v>10</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="9" t="b">
+        <v>7</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H59" s="9" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="I59" s="18" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>410</v>
+        <v>42</v>
       </c>
       <c r="H60" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="B61" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="I61" s="18" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H61" s="9" t="b">
+      <c r="D62" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="H62" s="9" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E62" s="18">
-        <v>1</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="9">
+        <v>438</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>38</v>
+        <v>438</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
-        <v>63</v>
+        <v>432</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>15</v>
@@ -3120,7 +3148,7 @@
     </row>
     <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>63</v>
+        <v>432</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>0</v>
@@ -3131,36 +3159,33 @@
       <c r="E66" s="9">
         <v>1</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="9" t="b">
+      <c r="C68" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E68" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" s="9" t="b">
-        <v>1</v>
+      <c r="F68" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3168,116 +3193,161 @@
         <v>63</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H69" s="9" t="b">
+      <c r="H72" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="73" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>409</v>
+      <c r="A74" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
+      <c r="I74" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D75" s="20"/>
-    </row>
-    <row r="76" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="I76" s="19" t="s">
+      <c r="B79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="I79" s="19" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
+    <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D80" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E80" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
+    <row r="81" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D81" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E81" s="14">
         <v>2</v>
       </c>
-      <c r="H78" s="14" t="b">
+      <c r="H81" s="14" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J75" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
+  <autoFilter ref="A1:J78" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B13F7C-5556-5A4F-96CF-1AEAAC0AB908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC8BBD-F9CF-294A-A9F0-32E66C0B8820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="472">
   <si>
     <t>name</t>
   </si>
@@ -1527,6 +1527,9 @@
   </si>
   <si>
     <t>variables</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -2059,9 +2062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E080B8D-E59C-EC4A-8043-87277F816BB8}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2406,9 +2409,6 @@
       <c r="F21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="11" t="b">
-        <v>1</v>
-      </c>
       <c r="I21" s="11" t="s">
         <v>436</v>
       </c>
@@ -2679,9 +2679,6 @@
       <c r="F37" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="H37" s="23" t="b">
-        <v>1</v>
-      </c>
       <c r="I37" s="10" t="s">
         <v>437</v>
       </c>
@@ -2993,9 +2990,6 @@
       </c>
       <c r="F56" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="H56" s="9" t="b">
-        <v>1</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>19</v>
@@ -5760,7 +5754,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6145,6 +6139,12 @@
       <c r="A11" t="s">
         <v>370</v>
       </c>
+      <c r="B11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" t="s">
+        <v>471</v>
+      </c>
       <c r="D11" t="s">
         <v>383</v>
       </c>
@@ -6173,6 +6173,12 @@
       <c r="A12" t="s">
         <v>370</v>
       </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" t="s">
+        <v>471</v>
+      </c>
       <c r="D12" t="s">
         <v>384</v>
       </c>
@@ -6200,6 +6206,12 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" t="s">
+        <v>471</v>
       </c>
       <c r="D13" t="s">
         <v>385</v>
@@ -6433,10 +6445,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B958AC-AE9C-6646-926B-247F9F6B40B5}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6485,6 +6497,14 @@
         <v>417</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6494,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552128E9-1EC3-674C-BB17-36DDC2F16F66}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6599,7 +6619,7 @@
         <v>347</v>
       </c>
       <c r="F3" s="27" t="str">
-        <f t="shared" ref="F3:F13" si="1">E3</f>
+        <f t="shared" ref="F3:G13" si="1">E3</f>
         <v>CHOP</v>
       </c>
       <c r="G3" s="27" t="str">
@@ -6905,6 +6925,13 @@
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>NINFEA</v>
+      </c>
+      <c r="H11" t="s">
+        <v>471</v>
+      </c>
       <c r="I11" t="s">
         <v>383</v>
       </c>
@@ -6939,6 +6966,13 @@
         <f t="shared" si="1"/>
         <v>NINFEA</v>
       </c>
+      <c r="G12" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>NINFEA</v>
+      </c>
+      <c r="H12" t="s">
+        <v>471</v>
+      </c>
       <c r="I12" t="s">
         <v>384</v>
       </c>
@@ -6972,6 +7006,13 @@
       <c r="F13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NINFEA</v>
+      </c>
+      <c r="G13" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>NINFEA</v>
+      </c>
+      <c r="H13" t="s">
+        <v>471</v>
       </c>
       <c r="I13" t="s">
         <v>385</v>

--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC8BBD-F9CF-294A-A9F0-32E66C0B8820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE37291-2B77-0342-B8B0-DB96B0928207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="Harmonization" sheetId="4" r:id="rId7"/>
     <sheet name="CodeList" sheetId="8" r:id="rId8"/>
     <sheet name="Code" sheetId="9" r:id="rId9"/>
-    <sheet name="VariableType" sheetId="6" r:id="rId10"/>
+    <sheet name="Format" sheetId="6" r:id="rId10"/>
     <sheet name="Topic" sheetId="5" r:id="rId11"/>
-    <sheet name="HarmonizationStatus" sheetId="7" r:id="rId12"/>
+    <sheet name="Match" sheetId="7" r:id="rId12"/>
+    <sheet name="Status" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$J$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$J$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="496">
   <si>
     <t>name</t>
   </si>
@@ -133,12 +134,6 @@
     <t>collection</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>very nice, I would love string[] for this</t>
-  </si>
-  <si>
     <t>e.g. '1'</t>
   </si>
   <si>
@@ -190,9 +185,6 @@
     <t>ideally executable code!</t>
   </si>
   <si>
-    <t>HarmonizationStatus</t>
-  </si>
-  <si>
     <t>startDate</t>
   </si>
   <si>
@@ -281,9 +273,6 @@
   </si>
   <si>
     <t>indicating partnership to larger collections such as lifecycle</t>
-  </si>
-  <si>
-    <t>VariableType</t>
   </si>
   <si>
     <t>categorical</t>
@@ -1530,6 +1519,90 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>whether this variable is required within this collection</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>enables grouping of tables into topic and to display tables in a tree</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>description of the role/function of this table</t>
+  </si>
+  <si>
+    <t>unique name within collection</t>
+  </si>
+  <si>
+    <t>string_array</t>
+  </si>
+  <si>
+    <t>exampleValues</t>
+  </si>
+  <si>
+    <t>organisation</t>
+  </si>
+  <si>
+    <t>name of the organisation managing this collection (might be DAP), e.g. 'UMCG'. TODO expand 'organisation'.</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>optional copy of the file</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>to define foreigh key relationships between variables within or across tables</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>listing of rules or conventions that data in this adheres too (see conception -&gt; wonder if we can make this more formal)</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>whether harmonisation is still draft or final</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>isParticipantId</t>
+  </si>
+  <si>
+    <t>isEventId</t>
+  </si>
+  <si>
+    <t>indicate that this variable is used to indicate events in case events are described in this table</t>
+  </si>
+  <si>
+    <t>indicate that this variable is used to indicate unique participantId</t>
+  </si>
+  <si>
+    <t>Organisation</t>
   </si>
 </sst>
 </file>
@@ -2060,11 +2133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E080B8D-E59C-EC4A-8043-87277F816BB8}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2083,48 +2156,45 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>1</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2132,16 +2202,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="12">
-        <v>2</v>
-      </c>
-      <c r="H3" s="12" t="b">
         <v>1</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2149,19 +2219,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2</v>
       </c>
       <c r="H4" s="12" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2169,13 +2236,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
+        <v>438</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="H5" s="12" t="b">
         <v>1</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2183,13 +2256,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>44</v>
+        <v>477</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>7</v>
+        <v>439</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="H6" s="12" t="b">
         <v>1</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2197,13 +2276,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H7" s="12" t="b">
         <v>1</v>
@@ -2214,13 +2290,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H8" s="12" t="b">
         <v>1</v>
@@ -2231,776 +2304,800 @@
         <v>14</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H9" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>466</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12">
+        <v>438</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>466</v>
+        <v>14</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="H11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>467</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="12" t="b">
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E17" s="16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="12" t="s">
-        <v>50</v>
+      <c r="C18" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12">
         <v>2</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11" t="s">
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>53</v>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>434</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>468</v>
+        <v>2</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>430</v>
+        <v>23</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="I26" s="11" t="s">
-        <v>5</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="H28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>6</v>
+        <v>434</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>442</v>
+        <v>471</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="H29" s="11" t="b">
-        <v>1</v>
+        <v>472</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>439</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="H31" s="11" t="b">
         <v>1</v>
       </c>
+      <c r="I31" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="H32" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>432</v>
+        <v>469</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="H33" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>431</v>
+      <c r="I33" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="H34" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>429</v>
+      <c r="I34" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>408</v>
+        <v>22</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="H37" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" s="23">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="E45" s="23">
+        <v>1</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="H48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E37" s="23">
+      <c r="D50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E38" s="23">
+      <c r="I50" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E51" s="18">
         <v>1</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F51" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="H39" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E43" s="18">
-        <v>1</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E46" s="18">
-        <v>1</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" s="9" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H52" s="9" t="b">
+        <v>7</v>
+      </c>
+      <c r="E52" s="9">
         <v>1</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="E53" s="9">
+        <v>438</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="H53" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I53" s="9" t="s">
-        <v>57</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="9">
+        <v>4</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="9" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="E56" s="9">
+        <v>18</v>
+      </c>
+      <c r="H55" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>19</v>
+      <c r="I55" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>7</v>
@@ -3008,76 +3105,84 @@
       <c r="E57" s="9">
         <v>1</v>
       </c>
+      <c r="I57" s="9" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>18</v>
+      <c r="H58" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>415</v>
+        <v>27</v>
       </c>
       <c r="H59" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="I59" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>42</v>
+        <v>438</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="H60" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D61" s="25"/>
-      <c r="I61" s="18" t="s">
-        <v>427</v>
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="H62" s="9" t="b">
         <v>1</v>
@@ -3085,263 +3190,427 @@
     </row>
     <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="9" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E65" s="18">
-        <v>1</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>14</v>
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
+      <c r="F66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>433</v>
+        <v>13</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E68" s="18">
+        <v>7</v>
+      </c>
+      <c r="E67" s="9">
         <v>1</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>14</v>
+    </row>
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="9">
+        <v>439</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H69" s="9" t="b">
         <v>1</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H70" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="9" t="b">
-        <v>1</v>
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="I71" s="18" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>63</v>
+        <v>406</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>59</v>
+        <v>406</v>
       </c>
       <c r="H72" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E75" s="18">
+        <v>1</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="I74" s="19" t="s">
+    </row>
+    <row r="78" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="D75" s="21"/>
-    </row>
-    <row r="76" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D77" s="20"/>
-    </row>
-    <row r="78" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="I79" s="19" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C80" s="14" t="s">
+      <c r="B85" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" s="20"/>
+    </row>
+    <row r="89" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="I90" s="19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D91" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E91" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="14" t="s">
+    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E92" s="14">
         <v>2</v>
       </c>
-      <c r="H81" s="14" t="b">
+      <c r="H92" s="14" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J78" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
+  <autoFilter ref="A1:J89" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3363,22 +3632,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3396,7 +3665,7 @@
   <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3410,2133 +3679,2133 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B125" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B126" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B135" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B136" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B137" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B138" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B139" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B143" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B144" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B145" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B151" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B153" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B156" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B157" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B159" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B163" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B164" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B166" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B167" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B168" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B172" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B173" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B175" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B182" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B184" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B185" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B186" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B187" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B188" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B189" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B190" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B191" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B192" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B193" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B194" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B195" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B196" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B197" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B198" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B199" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B200" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B201" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B202" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B203" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B204" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B205" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B206" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B207" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B209" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B210" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B211" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B213" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B214" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B215" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B216" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B217" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B218" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B219" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B221" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B222" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B223" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B224" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B225" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B227" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B228" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B230" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B231" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B235" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B236" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B237" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B238" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B239" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B240" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B241" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B242" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B243" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B244" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B245" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B246" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B247" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B248" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B249" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B250" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B251" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B252" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B253" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B254" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B255" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B256" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B257" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B258" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B259" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B260" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B261" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B262" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B263" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B264" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B265" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B266" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B267" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B268" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B269" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +5825,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5568,18 +5837,51 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>395</v>
-      </c>
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9BB0E0-D75F-C446-8F50-52230DDA124D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5606,27 +5908,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5658,90 +5960,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5754,7 +6056,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5778,182 +6080,182 @@
         <v>15</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="27" t="str">
         <f t="shared" ref="E2:E13" si="0">A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="K2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="27" t="str">
         <f>A3</f>
         <v>LifeCycle</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J3" s="27" t="str">
         <f t="shared" ref="J3:J13" si="1">A3</f>
         <v>LifeCycle</v>
       </c>
       <c r="K3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="27" t="str">
         <f t="shared" ref="B4:B10" si="2">A4</f>
         <v>LifeCycle</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="F4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
-        <v>75</v>
-      </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LifeCycle</v>
       </c>
       <c r="K4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B5" s="27" t="str">
         <f t="shared" si="2"/>
         <v>CHOP</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CHOP</v>
       </c>
       <c r="F5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J5" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5962,33 +6264,33 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B6" s="27" t="str">
         <f t="shared" si="2"/>
         <v>CHOP</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CHOP</v>
       </c>
       <c r="F6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J6" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5997,33 +6299,33 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B7" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ELFE</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ELFE</v>
       </c>
       <c r="F7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J7" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6032,33 +6334,33 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B8" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ELFE</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ELFE</v>
       </c>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6067,33 +6369,33 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B9" s="27" t="str">
         <f t="shared" si="2"/>
         <v>GenR</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GenR</v>
       </c>
       <c r="F9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6102,33 +6404,33 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B10" s="27" t="str">
         <f t="shared" si="2"/>
         <v>GenR</v>
       </c>
       <c r="C10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GenR</v>
       </c>
       <c r="F10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J10" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6137,32 +6439,32 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NINFEA</v>
       </c>
       <c r="F11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J11" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6171,32 +6473,32 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NINFEA</v>
       </c>
       <c r="F12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J12" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6205,32 +6507,32 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NINFEA</v>
       </c>
       <c r="F13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J13" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6267,53 +6569,53 @@
         <v>15</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G2" s="27" t="str">
         <f>A2</f>
@@ -6324,32 +6626,32 @@
         <v>LifeCycle</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="27" t="str">
         <f t="shared" ref="B3:B4" si="0">A3</f>
         <v>LifeCycle</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E3" s="27" t="str">
         <f t="shared" ref="E3:E5" si="1">A3</f>
         <v>LifeCycle</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G3" s="27" t="str">
         <f t="shared" ref="G3:G4" si="2">A3</f>
@@ -6360,32 +6662,32 @@
         <v>LifeCycle</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LifeCycle</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G4" s="27" t="str">
         <f t="shared" si="2"/>
@@ -6396,32 +6698,32 @@
         <v>LifeCycle</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="27" t="str">
         <f t="shared" ref="B5" si="4">A5</f>
         <v>LifeCycle</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LifeCycle</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G5" s="27" t="str">
         <f t="shared" ref="G5" si="5">A5</f>
@@ -6432,10 +6734,10 @@
         <v>LifeCycle</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6467,42 +6769,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6514,7 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552128E9-1EC3-674C-BB17-36DDC2F16F66}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -6535,88 +6837,88 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="G1" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="27" t="str">
         <f>A2</f>
         <v>LifeCycle</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" t="s">
         <v>347</v>
-      </c>
-      <c r="I2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="27" t="str">
         <f t="shared" ref="B3:B15" si="0">A3</f>
         <v>LifeCycle</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F3" s="27" t="str">
         <f t="shared" ref="F3:G13" si="1">E3</f>
@@ -6627,37 +6929,37 @@
         <v>CHOP</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J3" t="s">
+        <v>344</v>
+      </c>
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
-        <v>352</v>
-      </c>
       <c r="L3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F4" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6668,64 +6970,64 @@
         <v>CHOP</v>
       </c>
       <c r="H4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F6" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6736,37 +7038,37 @@
         <v>ELFE</v>
       </c>
       <c r="H6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F7" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6777,37 +7079,37 @@
         <v>ELFE</v>
       </c>
       <c r="H7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6818,37 +7120,37 @@
         <v>GenR</v>
       </c>
       <c r="H8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6859,67 +7161,67 @@
         <v>GenR</v>
       </c>
       <c r="H9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6930,37 +7232,37 @@
         <v>NINFEA</v>
       </c>
       <c r="H11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6971,37 +7273,37 @@
         <v>NINFEA</v>
       </c>
       <c r="H12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C13" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="1"/>
@@ -7012,67 +7314,67 @@
         <v>NINFEA</v>
       </c>
       <c r="H13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K13" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LifeCycle</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15"/>
       <c r="J15" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7102,10 +7404,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7129,10 +7431,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -7143,13 +7445,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7157,13 +7459,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D3">
         <v>2</v>

--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE37291-2B77-0342-B8B0-DB96B0928207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61501B-0F18-6F4F-B0B2-4EB7C95E18EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="Status" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$J$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$L$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
     <author>Morris Swertz</author>
   </authors>
   <commentList>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{1D849659-0ABF-1446-9CFE-C292473BDDF5}">
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{1D849659-0ABF-1446-9CFE-C292473BDDF5}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="508">
   <si>
     <t>name</t>
   </si>
@@ -1425,9 +1425,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>in UI this is then one lookup field. In Excel it will be three columns.</t>
   </si>
   <si>
@@ -1446,60 +1443,6 @@
     <t>nullable</t>
   </si>
   <si>
-    <t>collectionEvent-collection</t>
-  </si>
-  <si>
-    <t>collectionEvent-name</t>
-  </si>
-  <si>
-    <t>table-collection</t>
-  </si>
-  <si>
-    <t>table-name</t>
-  </si>
-  <si>
-    <t>codeList-collection</t>
-  </si>
-  <si>
-    <t>codeList-name</t>
-  </si>
-  <si>
-    <t>variable-collection</t>
-  </si>
-  <si>
-    <t>variable-table-collection</t>
-  </si>
-  <si>
-    <t>variable-table-name</t>
-  </si>
-  <si>
-    <t>target-collection</t>
-  </si>
-  <si>
-    <t>target-table-name</t>
-  </si>
-  <si>
-    <t>target-table-collection</t>
-  </si>
-  <si>
-    <t>target-name</t>
-  </si>
-  <si>
-    <t>source-collection</t>
-  </si>
-  <si>
-    <t>source-table-collection</t>
-  </si>
-  <si>
-    <t>source-table-name</t>
-  </si>
-  <si>
-    <t>source-name</t>
-  </si>
-  <si>
-    <t>variable-name</t>
-  </si>
-  <si>
     <t>ontologyTerm</t>
   </si>
   <si>
@@ -1603,13 +1546,106 @@
   </si>
   <si>
     <t>Organisation</t>
+  </si>
+  <si>
+    <t>refTable</t>
+  </si>
+  <si>
+    <t>refFrom</t>
+  </si>
+  <si>
+    <t>refTo</t>
+  </si>
+  <si>
+    <t>collection,name</t>
+  </si>
+  <si>
+    <t>collectionName</t>
+  </si>
+  <si>
+    <t>codeListName</t>
+  </si>
+  <si>
+    <t>collectionName,codeListName</t>
+  </si>
+  <si>
+    <t>collection,table</t>
+  </si>
+  <si>
+    <t>collection,event</t>
+  </si>
+  <si>
+    <t>collection,table,name</t>
+  </si>
+  <si>
+    <t>sourceVariables</t>
+  </si>
+  <si>
+    <t>targetVariable</t>
+  </si>
+  <si>
+    <t>targetCollection,targetTable,targetVariable</t>
+  </si>
+  <si>
+    <t>sourceCollection,sourceTable,sourceVariables</t>
+  </si>
+  <si>
+    <t>collection,codeList</t>
+  </si>
+  <si>
+    <t>collection,referencesTable,referencesVariable</t>
+  </si>
+  <si>
+    <t>collection,sinceVersion</t>
+  </si>
+  <si>
+    <t>collection,untilVersion</t>
+  </si>
+  <si>
+    <t>collection,variableTable,variableName</t>
+  </si>
+  <si>
+    <t>variablesCollection,variablesTables,variables</t>
+  </si>
+  <si>
+    <t>codesCollection,codesCodeList,codes</t>
+  </si>
+  <si>
+    <t>make refback readonly so we don't need to map, but also cannot update?</t>
+  </si>
+  <si>
+    <t>collectionName,codeListName,codeLabel</t>
+  </si>
+  <si>
+    <t>source,targetCollection,targetTable,targetVariable</t>
+  </si>
+  <si>
+    <t>harmonisationsSource,harmonisationTargetCollection,harmonisationTargetTable,harmonisationTargetVariable</t>
+  </si>
+  <si>
+    <t>targetCollection,targetPopulation</t>
+  </si>
+  <si>
+    <t>variableTable</t>
+  </si>
+  <si>
+    <t>variableName</t>
+  </si>
+  <si>
+    <t>targetCollection</t>
+  </si>
+  <si>
+    <t>targetTable</t>
+  </si>
+  <si>
+    <t>sourceTable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1671,21 +1707,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1775,12 +1796,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1801,8 +1816,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2133,11 +2154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E080B8D-E59C-EC4A-8043-87277F816BB8}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2148,13 +2169,15 @@
     <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.1640625" style="2"/>
+    <col min="7" max="7" width="94.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -2171,1446 +2194,1545 @@
         <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="J15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="J27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="J32" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="J36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="J37" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D40" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="J46" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="J48" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="J60" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D69" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="J69" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="K71" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J72" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E75" s="16">
+        <v>1</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="16">
+        <v>1</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J82" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="18"/>
+    </row>
+    <row r="88" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" s="18"/>
+    </row>
+    <row r="89" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D89" s="18"/>
+    </row>
+    <row r="90" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="K90" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D91" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E91" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E92" s="12">
+        <v>2</v>
+      </c>
+      <c r="J92" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2</v>
-      </c>
-      <c r="H4" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="H6" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="H15" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="H31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="H32" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="H37" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="H40" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="H41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E44" s="23">
-        <v>1</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E45" s="23">
-        <v>1</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="H46" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H48" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="E51" s="18">
-        <v>1</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="H53" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="E56" s="18">
-        <v>1</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="9">
-        <v>1</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="E63" s="9">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="H69" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H70" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="D71" s="25"/>
-      <c r="I71" s="18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="H72" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H73" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="E75" s="18">
-        <v>1</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="E78" s="18">
-        <v>1</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="9">
-        <v>1</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H82" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="I85" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="I90" s="19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="14">
-        <v>2</v>
-      </c>
-      <c r="H92" s="14" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J89" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
+  <autoFilter ref="A1:L89" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5872,12 +5994,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -5893,7 +6015,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="A1:XFD1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5941,7 +6063,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6053,490 +6175,337 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071DF56E-A035-474F-A911-CCD631F267C6}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="34.5" customWidth="1"/>
-    <col min="12" max="12" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="56.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>445</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>443</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>471</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="27" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
+      <c r="B2" t="s">
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="27" t="str">
-        <f t="shared" ref="E2:E13" si="0">A2</f>
-        <v>LifeCycle</v>
+        <v>417</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="27" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="K2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27" t="str">
-        <f>A3</f>
-        <v>LifeCycle</v>
+      <c r="B3" t="s">
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
+        <v>417</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>417</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="27" t="str">
-        <f t="shared" ref="J3:J13" si="1">A3</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="K3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="27" t="str">
-        <f t="shared" ref="B4:B10" si="2">A4</f>
-        <v>LifeCycle</v>
+      <c r="B4" t="s">
+        <v>413</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
+        <v>417</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J4" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="K4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>CHOP</v>
+      <c r="B5" t="s">
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOP</v>
+        <v>417</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I5" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>CHOP</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>CHOP</v>
+      <c r="B6" t="s">
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
-      </c>
-      <c r="E6" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>CHOP</v>
+        <v>417</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I6" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>CHOP</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>ELFE</v>
+      <c r="B7" t="s">
+        <v>413</v>
       </c>
       <c r="C7" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E7" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>ELFE</v>
+        <v>417</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>384</v>
-      </c>
-      <c r="I7" t="s">
         <v>183</v>
       </c>
-      <c r="J7" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>ELFE</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>ELFE</v>
+      <c r="B8" t="s">
+        <v>413</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>ELFE</v>
+        <v>417</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I8" t="s">
         <v>183</v>
       </c>
-      <c r="J8" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>ELFE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>359</v>
       </c>
-      <c r="B9" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>GenR</v>
+      <c r="B9" t="s">
+        <v>413</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>GenR</v>
+        <v>417</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>386</v>
-      </c>
-      <c r="I9" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>GenR</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>GenR</v>
+      <c r="B10" t="s">
+        <v>413</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>GenR</v>
+        <v>417</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I10" t="s">
         <v>183</v>
       </c>
-      <c r="J10" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>GenR</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
-        <v>467</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>NINFEA</v>
+        <v>417</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>388</v>
-      </c>
-      <c r="I11" t="s">
         <v>184</v>
       </c>
-      <c r="J11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
-      </c>
-      <c r="E12" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>NINFEA</v>
+        <v>417</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>389</v>
-      </c>
-      <c r="I12" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="C13" t="s">
-        <v>467</v>
+        <v>381</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
-      </c>
-      <c r="E13" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>NINFEA</v>
+        <v>417</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>390</v>
-      </c>
-      <c r="I13" t="s">
         <v>183</v>
-      </c>
-      <c r="J13" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
       </c>
     </row>
   </sheetData>
@@ -6547,196 +6516,117 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7225856-52AC-FE4B-8EA5-12AD8A471D81}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
-    <col min="7" max="8" width="23.83203125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="27" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="27" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G2" s="27" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="H2" s="27" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27" t="str">
-        <f t="shared" ref="B3:B4" si="0">A3</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E3" s="27" t="str">
-        <f t="shared" ref="E3:E5" si="1">A3</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G3" s="27" t="str">
-        <f t="shared" ref="G3:G4" si="2">A3</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="H3" s="27" t="str">
-        <f t="shared" ref="H3:H4" si="3">A3</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="J3" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E4" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G4" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="H4" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="J4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="27" t="str">
-        <f t="shared" ref="B5" si="4">A5</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>415</v>
       </c>
-      <c r="E5" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G5" s="27" t="str">
-        <f t="shared" ref="G5" si="5">A5</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="H5" s="27" t="str">
-        <f t="shared" ref="H5" si="6">A5</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="J5" t="s">
+      <c r="F5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6804,7 +6694,7 @@
         <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -6814,566 +6704,467 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552128E9-1EC3-674C-BB17-36DDC2F16F66}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="11" max="11" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="80.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>454</v>
+        <v>435</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>457</v>
+      <c r="F1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="27" t="str">
-        <f>A2</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>A3</f>
+        <v>CHOP</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>A4</f>
+        <v>CHOP</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>A6</f>
+        <v>ELFE</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>A7</f>
+        <v>ELFE</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>A8</f>
+        <v>GenR</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>A9</f>
+        <v>GenR</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H10" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27" t="str">
-        <f t="shared" ref="B3:B15" si="0">A3</f>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C11" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>A11</f>
+        <v>NINFEA</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E12" s="2" t="str">
+        <f>A12</f>
+        <v>NINFEA</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>A13</f>
+        <v>NINFEA</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F3" s="27" t="str">
-        <f t="shared" ref="F3:G13" si="1">E3</f>
-        <v>CHOP</v>
-      </c>
-      <c r="G3" s="27" t="str">
-        <f>E3</f>
-        <v>CHOP</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K3" t="s">
-        <v>348</v>
-      </c>
-      <c r="L3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C15" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>CHOP</v>
-      </c>
-      <c r="G4" s="27" t="str">
-        <f>E4</f>
-        <v>CHOP</v>
-      </c>
-      <c r="H4" t="s">
-        <v>413</v>
-      </c>
-      <c r="I4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K4" t="s">
-        <v>350</v>
-      </c>
-      <c r="L4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>352</v>
-      </c>
-      <c r="J5" t="s">
-        <v>344</v>
-      </c>
-      <c r="K5" t="s">
-        <v>353</v>
-      </c>
-      <c r="L5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>ELFE</v>
-      </c>
-      <c r="G6" s="27" t="str">
-        <f>E6</f>
-        <v>ELFE</v>
-      </c>
-      <c r="H6" t="s">
-        <v>413</v>
-      </c>
-      <c r="I6" t="s">
-        <v>376</v>
-      </c>
-      <c r="J6" t="s">
-        <v>344</v>
-      </c>
-      <c r="K6" t="s">
-        <v>355</v>
-      </c>
-      <c r="L6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>ELFE</v>
-      </c>
-      <c r="G7" s="27" t="str">
-        <f>E7</f>
-        <v>ELFE</v>
-      </c>
-      <c r="H7" t="s">
-        <v>413</v>
-      </c>
-      <c r="I7" t="s">
-        <v>375</v>
-      </c>
-      <c r="J7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>359</v>
-      </c>
-      <c r="F8" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>GenR</v>
-      </c>
-      <c r="G8" s="27" t="str">
-        <f>E8</f>
-        <v>GenR</v>
-      </c>
-      <c r="H8" t="s">
-        <v>413</v>
-      </c>
-      <c r="I8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J8" t="s">
-        <v>344</v>
-      </c>
-      <c r="K8" t="s">
-        <v>360</v>
-      </c>
-      <c r="L8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F9" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>GenR</v>
-      </c>
-      <c r="G9" s="27" t="str">
-        <f>E9</f>
-        <v>GenR</v>
-      </c>
-      <c r="H9" t="s">
-        <v>413</v>
-      </c>
-      <c r="I9" t="s">
-        <v>378</v>
-      </c>
-      <c r="J9" t="s">
-        <v>344</v>
-      </c>
-      <c r="K9" t="s">
-        <v>362</v>
-      </c>
-      <c r="L9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C10" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>359</v>
-      </c>
-      <c r="I10" t="s">
-        <v>345</v>
-      </c>
-      <c r="J10" t="s">
-        <v>344</v>
-      </c>
-      <c r="K10" t="s">
-        <v>364</v>
-      </c>
-      <c r="L10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C11" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>366</v>
-      </c>
-      <c r="F11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-      <c r="G11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-      <c r="H11" t="s">
-        <v>467</v>
-      </c>
-      <c r="I11" t="s">
-        <v>379</v>
-      </c>
-      <c r="J11" t="s">
-        <v>344</v>
-      </c>
-      <c r="K11" t="s">
-        <v>367</v>
-      </c>
-      <c r="L11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C12" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F12" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-      <c r="G12" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-      <c r="H12" t="s">
-        <v>467</v>
-      </c>
-      <c r="I12" t="s">
-        <v>380</v>
-      </c>
-      <c r="J12" t="s">
-        <v>344</v>
-      </c>
-      <c r="K12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F13" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-      <c r="G13" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>NINFEA</v>
-      </c>
-      <c r="H13" t="s">
-        <v>467</v>
-      </c>
-      <c r="I13" t="s">
-        <v>381</v>
-      </c>
-      <c r="J13" t="s">
-        <v>344</v>
-      </c>
-      <c r="K13" t="s">
-        <v>371</v>
-      </c>
-      <c r="L13" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C14" t="s">
-        <v>413</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>343</v>
-      </c>
-      <c r="J14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>LifeCycle</v>
-      </c>
-      <c r="C15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15"/>
-      <c r="J15" s="4" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="I15" s="27" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7420,7 +7211,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7431,10 +7222,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>

--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61501B-0F18-6F4F-B0B2-4EB7C95E18EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98EE6D8-F286-0842-9D98-F12ABD384E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Status" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$L$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$L$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="511">
   <si>
     <t>name</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>AgeCategory</t>
-  </si>
-  <si>
-    <t>Harmonization</t>
   </si>
   <si>
     <t>match</t>
@@ -1545,9 +1542,6 @@
     <t>indicate that this variable is used to indicate unique participantId</t>
   </si>
   <si>
-    <t>Organisation</t>
-  </si>
-  <si>
     <t>refTable</t>
   </si>
   <si>
@@ -1639,6 +1633,21 @@
   </si>
   <si>
     <t>sourceTable</t>
+  </si>
+  <si>
+    <t>VariableHarmonization</t>
+  </si>
+  <si>
+    <t>TableHarmonization</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>sourceCollection,sourceTable</t>
+  </si>
+  <si>
+    <t>targetCollection,targetTable</t>
   </si>
 </sst>
 </file>
@@ -1724,12 +1733,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1754,12 +1757,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1787,36 +1796,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1824,6 +1837,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,11 +2171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E080B8D-E59C-EC4A-8043-87277F816BB8}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2186,7 @@
     <col min="4" max="4" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="43.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -2179,926 +2196,900 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10" t="s">
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10">
+      <c r="J13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="30" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="J34" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="J6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D35" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J35" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J41" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J43" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="D44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="J44" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="F45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="J45" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="J46" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="F50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="J15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E23" s="24">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="J26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="J27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="J31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="J32" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="J34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="J36" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="J37" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="J40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="J41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="E44" s="21">
-        <v>1</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="E45" s="21">
-        <v>1</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="J46" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="J48" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E51" s="16">
-        <v>1</v>
-      </c>
-      <c r="F51" s="16" t="s">
+      <c r="E51" s="13">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>0</v>
@@ -3110,78 +3101,78 @@
         <v>1</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>406</v>
+        <v>7</v>
       </c>
       <c r="J53" s="7" t="b">
         <v>1</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>18</v>
+        <v>436</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="J54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>454</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>464</v>
+        <v>58</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>18</v>
+        <v>436</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>478</v>
       </c>
       <c r="J55" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+    </row>
+    <row r="56" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E56" s="16">
-        <v>1</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>14</v>
+      <c r="C56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3189,195 +3180,183 @@
         <v>20</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="7">
-        <v>1</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>422</v>
+        <v>34</v>
+      </c>
+      <c r="J57" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="7" t="b">
-        <v>1</v>
+        <v>437</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>59</v>
+        <v>445</v>
       </c>
       <c r="D60" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J60" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J61" s="7" t="b">
-        <v>1</v>
+      <c r="E61" s="13">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J62" s="7" t="b">
+        <v>7</v>
+      </c>
+      <c r="E62" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E63" s="7">
-        <v>1</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="7">
+        <v>441</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J64" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J65" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="K65" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E66" s="16">
-        <v>1</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>17</v>
+    </row>
+    <row r="66" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E66" s="13">
+        <v>1</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>7</v>
@@ -3385,354 +3364,439 @@
       <c r="E67" s="7">
         <v>1</v>
       </c>
+      <c r="K67" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="68" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="7" t="s">
-        <v>16</v>
+      <c r="J68" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>442</v>
+        <v>36</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>411</v>
+        <v>35</v>
       </c>
       <c r="J69" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="7" t="s">
+    <row r="70" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E75" s="18">
+        <v>1</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E76" s="18">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="J77" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="J79" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="K82" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="10">
+        <v>2</v>
+      </c>
+      <c r="J84" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="K85" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J86" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J87" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="K71" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="J72" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J73" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E75" s="16">
-        <v>1</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E78" s="16">
-        <v>1</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1</v>
-      </c>
-      <c r="K79" s="7" t="s">
+      <c r="J88" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J80" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J81" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J82" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="K85" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="D86" s="19"/>
-    </row>
-    <row r="87" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
+      <c r="B92" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D92" s="16"/>
+    </row>
+    <row r="93" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D87" s="18"/>
-    </row>
-    <row r="88" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D88" s="18"/>
-    </row>
-    <row r="89" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D89" s="18"/>
-    </row>
-    <row r="90" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="B90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="K90" s="17" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="12">
-        <v>2</v>
-      </c>
-      <c r="J92" s="12" t="b">
-        <v>1</v>
-      </c>
+      <c r="B93" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D93" s="15"/>
+    </row>
+    <row r="94" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D95" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L89" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
+  <autoFilter ref="A1:L81" xr:uid="{05A83487-31A5-894A-B1C5-9D57C8ECFC86}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3754,22 +3818,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3801,2133 +3865,2133 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
         <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
         <v>132</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
         <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
         <v>105</v>
-      </c>
-      <c r="B57" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B132" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B161" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B166" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B172" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B173" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B176" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B178" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B183" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B185" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B187" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B188" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B189" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B190" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B191" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B192" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B193" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B194" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B195" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B197" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B198" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B199" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B200" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B201" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B202" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B203" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B204" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B207" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B208" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B209" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B210" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B211" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B212" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B213" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B215" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B216" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B217" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B218" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B219" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B220" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B221" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B224" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B227" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B228" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B231" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B232" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B234" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B237" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B238" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B239" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B240" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B241" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B242" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B243" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B245" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B246" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B247" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B248" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B249" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B250" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B251" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B252" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B253" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B254" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B255" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B256" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B257" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B258" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B259" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B261" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B262" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B263" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B264" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B265" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B266" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B267" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B268" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B269" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5959,17 +6023,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5994,12 +6058,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6030,27 +6094,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6082,90 +6146,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6208,304 +6272,304 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6544,90 +6608,90 @@
         <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6659,42 +6723,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -6727,445 +6791,445 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>A3</f>
         <v>CHOP</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>A4</f>
         <v>CHOP</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>A6</f>
         <v>ELFE</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>A7</f>
         <v>ELFE</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>A8</f>
         <v>GenR</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>A9</f>
         <v>GenR</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>A11</f>
         <v>NINFEA</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>A12</f>
         <v>NINFEA</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>A13</f>
         <v>NINFEA</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>64</v>
+    </row>
+    <row r="15" spans="1:10" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>414</v>
+      <c r="H15" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -7195,10 +7259,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -7222,10 +7286,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -7236,13 +7300,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7250,13 +7314,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D3">
         <v>2</v>

--- a/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/cohort_catalogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/IdeaProjects/emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98EE6D8-F286-0842-9D98-F12ABD384E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C6E50-4904-1749-8F0D-D921294D1AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="20540" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="20540" activeTab="6" xr2:uid="{F42F3E6F-6A7C-5B4F-AA42-4152A61B026F}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Variable" sheetId="3" r:id="rId4"/>
     <sheet name="RepeatedVariable" sheetId="12" r:id="rId5"/>
     <sheet name="Table" sheetId="13" r:id="rId6"/>
-    <sheet name="Harmonization" sheetId="4" r:id="rId7"/>
+    <sheet name="VariableHarmonization" sheetId="4" r:id="rId7"/>
     <sheet name="CodeList" sheetId="8" r:id="rId8"/>
     <sheet name="Code" sheetId="9" r:id="rId9"/>
     <sheet name="Format" sheetId="6" r:id="rId10"/>
@@ -39,52 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Morris Swertz</author>
-  </authors>
-  <commentList>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{1D849659-0ABF-1446-9CFE-C292473BDDF5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Morris Swertz:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">will be automatically repeated to length of sourceVariables
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="513">
   <si>
     <t>name</t>
   </si>
@@ -1611,9 +1567,6 @@
     <t>collectionName,codeListName,codeLabel</t>
   </si>
   <si>
-    <t>source,targetCollection,targetTable,targetVariable</t>
-  </si>
-  <si>
     <t>harmonisationsSource,harmonisationTargetCollection,harmonisationTargetTable,harmonisationTargetVariable</t>
   </si>
   <si>
@@ -1648,13 +1601,22 @@
   </si>
   <si>
     <t>targetCollection,targetTable</t>
+  </si>
+  <si>
+    <t>sourceCollection,targetCollection,targetTable,targetVariable</t>
+  </si>
+  <si>
+    <t>soc_born_father,soc_born_mother</t>
+  </si>
+  <si>
+    <t>table1,table1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1703,19 +1665,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2173,9 +2122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E080B8D-E59C-EC4A-8043-87277F816BB8}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2762,13 +2711,13 @@
         <v>433</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>486</v>
@@ -3152,7 +3101,7 @@
         <v>59</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>478</v>
@@ -3415,7 +3364,7 @@
     </row>
     <row r="71" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>434</v>
@@ -3430,7 +3379,7 @@
         <v>23</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>478</v>
@@ -3438,10 +3387,10 @@
     </row>
     <row r="72" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
@@ -3450,7 +3399,7 @@
         <v>23</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H72" s="24" t="s">
         <v>478</v>
@@ -3458,7 +3407,7 @@
     </row>
     <row r="73" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>4</v>
@@ -3469,7 +3418,7 @@
     </row>
     <row r="74" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>29</v>
@@ -3480,10 +3429,10 @@
     </row>
     <row r="75" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>437</v>
@@ -3492,16 +3441,24 @@
         <v>1</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K75" s="6"/>
+        <v>409</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="76" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>486</v>
+        <v>56</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>437</v>
@@ -3510,84 +3467,76 @@
         <v>1</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>432</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K76" s="6"/>
     </row>
     <row r="77" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>485</v>
+        <v>28</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="J77" s="6" t="b">
-        <v>1</v>
+        <v>437</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>28</v>
+        <v>466</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>437</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="J78" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>30</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>468</v>
+        <v>436</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="J79" s="6" t="b">
         <v>1</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>4</v>
@@ -3601,7 +3550,7 @@
     </row>
     <row r="81" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>29</v>
@@ -6608,10 +6557,10 @@
         <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6767,135 +6716,126 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552128E9-1EC3-674C-BB17-36DDC2F16F66}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552128E9-1EC3-674C-BB17-36DDC2F16F66}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="80.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="31.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="80.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>485</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
+      <c r="E2" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>344</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>A3</f>
-        <v>CHOP</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f>A4</f>
-        <v>CHOP</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>412</v>
@@ -6904,54 +6844,50 @@
         <v>373</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>A6</f>
-        <v>ELFE</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>412</v>
@@ -6960,31 +6896,27 @@
         <v>375</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>A7</f>
-        <v>ELFE</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>412</v>
@@ -6993,31 +6925,27 @@
         <v>374</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>A8</f>
-        <v>GenR</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>412</v>
@@ -7026,31 +6954,27 @@
         <v>376</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>A9</f>
-        <v>GenR</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>412</v>
@@ -7059,57 +6983,53 @@
         <v>377</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>344</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>A11</f>
-        <v>NINFEA</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>447</v>
@@ -7118,31 +7038,27 @@
         <v>378</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>A12</f>
-        <v>NINFEA</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>447</v>
@@ -7151,31 +7067,27 @@
         <v>379</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>A13</f>
-        <v>NINFEA</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>447</v>
@@ -7184,58 +7096,53 @@
         <v>380</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="21" t="s">
+        <v>390</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="H15" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="22" t="s">
         <v>413</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
